--- a/数据/油气石化经营数据.xlsx
+++ b/数据/油气石化经营数据.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="中国石油" sheetId="1" r:id="rId1"/>
-    <sheet name="中国海油" sheetId="3" r:id="rId2"/>
-    <sheet name="中国石化" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="中国石油" sheetId="1" r:id="rId2"/>
+    <sheet name="中国海油" sheetId="3" r:id="rId3"/>
+    <sheet name="中国石化" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="127">
   <si>
     <t>生产经营数据</t>
   </si>
@@ -803,12 +804,55 @@
   <si>
     <t>*包括公司享有的按权益法核算的被投资实体的权益，其中，2024 年前三季度约15.2 百万桶油当量，2023 年前三季度约15.5 百万桶油当量；2024 年第三季度约5.2 百万桶油当量，2023 年第三季度约5.3 百万桶油当量。</t>
   </si>
+  <si>
+    <t>中国石油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国海油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶油成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.79 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作成本（美元/桶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +908,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1265,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1282,192 +1332,105 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,6 +1440,98 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1781,6 +1836,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="74">
+        <v>11.2</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="74">
+        <v>27.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1802,773 +1939,773 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="3" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="25" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="2:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="50"/>
+      <c r="L4" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="37"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="2:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="16">
         <v>708.3</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="16">
         <v>706</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="17">
         <v>0.3</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="38" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="18">
         <v>1036.2</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="18">
         <v>1043.5999999999999</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="17">
         <v>-0.7</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="16">
         <v>585.4</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="16">
         <v>583.79999999999995</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="17">
         <v>0.3</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="19">
         <v>89909</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="19">
         <v>92451</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="17">
         <v>-2.7</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="16">
         <v>122.9</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="16">
         <v>122.2</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="17">
         <v>0.6</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="38" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="19">
         <v>36439</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="19">
         <v>37749</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="17">
         <v>-3.5</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="18">
         <v>3803.8</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="18">
         <v>3656.6</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="17">
         <v>4</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="38" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="19">
         <v>13534</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="19">
         <v>11002</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="17">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="18">
         <v>3666.9</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="18">
         <v>3513.7</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="19">
         <v>39936</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="19">
         <v>43700</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="17">
         <v>-8.6</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="16">
         <v>136.9</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="16">
         <v>142.9</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="17">
         <v>-4.2</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="38" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="43"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="2:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="18">
         <v>1342.3</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="18">
         <v>1315.4</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="17">
         <v>2</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="38" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="19">
         <v>6356</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="19">
         <v>5826</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="17">
         <v>9.1</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="18">
         <v>1196.5</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="18">
         <v>1169.4000000000001</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="38" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="19">
         <v>9850</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="19">
         <v>9158</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="17">
         <v>7.6</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="16">
         <v>145.80000000000001</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="16">
         <v>146</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="17">
         <v>-0.1</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="38" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="16">
         <v>866</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="16">
         <v>809</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="23">
         <v>33.6</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="23">
         <v>14.7</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="24">
         <v>128.6</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="38" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="16">
         <v>730</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="16">
         <v>703</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="17">
         <v>3.8</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="44" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="25">
         <v>2218</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="25">
         <v>1590</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="24">
         <v>39.5</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="19">
         <v>119886</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="19">
         <v>125624</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="17">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="19">
         <v>49138</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="19">
         <v>51516</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="17">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="19">
         <v>16099</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="19">
         <v>14295</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="17">
         <v>12.6</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="19">
         <v>54649</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="19">
         <v>59813</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="17">
         <v>-8.6</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="19">
         <v>89596</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="19">
         <v>93079</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="17">
         <v>-3.7</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="19">
         <v>37963</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="19">
         <v>39330</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="17">
         <v>-3.5</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="19">
         <v>8424</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="19">
         <v>7655</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="17">
         <v>10</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="25">
         <v>43209</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="25">
         <v>46094</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="24">
         <v>-6.3</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="19">
         <v>22530</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="19">
         <v>22755</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="17">
         <v>-1</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="19">
         <v>20296</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="19">
         <v>20367</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="17">
         <v>-0.3</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="25">
         <v>19730</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="25">
         <v>19583</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="24">
         <v>0.8</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="H3:L3"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2576,11 +2713,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2609,21 +2746,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -2641,142 +2778,142 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7" t="s">
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7" t="s">
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="56" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="11" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="11" t="s">
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="6">
         <v>99254</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="6">
         <v>114753</v>
       </c>
       <c r="S6" s="5">
         <v>-13.5</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
         <v>326024</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <v>306817</v>
       </c>
       <c r="V6" s="5">
@@ -2784,59 +2921,59 @@
       </c>
     </row>
     <row r="7" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="57" t="s">
         <v>83</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="7">
         <v>86320</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="7">
         <v>86710</v>
       </c>
       <c r="S7" s="2">
         <v>-0.4</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="7">
         <v>271432</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="7">
         <v>238396</v>
       </c>
       <c r="V7" s="2">
@@ -2844,35 +2981,35 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
       <c r="P8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="6">
         <v>74126</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <v>75519</v>
       </c>
       <c r="S8" s="5">
         <v>-1.8</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="6">
         <v>235382</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="6">
         <v>205452</v>
       </c>
       <c r="V8" s="5">
@@ -2880,37 +3017,37 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
       <c r="P9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="7">
         <v>12194</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="7">
         <v>11191</v>
       </c>
       <c r="S9" s="2">
         <v>9</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="7">
         <v>36050</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="7">
         <v>32944</v>
       </c>
       <c r="V9" s="2">
@@ -2918,43 +3055,43 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="8">
         <v>57</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="8">
         <v>19.3</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="8">
         <v>60.2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="8">
         <v>167.7</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="8">
         <v>58.1</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="8">
         <v>177.4</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="8">
         <v>52.3</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="8">
         <v>16.8</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="8">
         <v>55.1</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="8">
         <v>154.69999999999999</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="8">
         <v>51.1</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="8">
         <v>163.19999999999999</v>
       </c>
       <c r="P10" s="3" t="s">
@@ -2968,58 +3105,58 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="11">
         <v>65.400000000000006</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="11">
         <v>19.7</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="11">
         <v>26.9</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="11">
         <v>192</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="11">
         <v>60.4</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="11">
         <v>8.4</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="11">
         <v>61.7</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="11">
         <v>19.100000000000001</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="11">
         <v>27.8</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="11">
         <v>184.9</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="11">
         <v>59.9</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="7">
         <v>4607</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="7">
         <v>4220</v>
       </c>
       <c r="S11" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="7">
         <v>13847</v>
       </c>
       <c r="U11" s="2" t="s">
@@ -3030,61 +3167,61 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="8">
         <v>26.3</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="8">
         <v>34.4</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="8">
         <v>32.1</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="8">
         <v>84.9</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="8">
         <v>113</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="8">
         <v>103.7</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="8">
         <v>25.3</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="8">
         <v>42.2</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="8">
         <v>32.299999999999997</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="8">
         <v>81.8</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="8">
         <v>114.3</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="8">
         <v>100.8</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="6">
         <v>21564</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="6">
         <v>21788</v>
       </c>
       <c r="S12" s="5">
         <v>-1</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="6">
         <v>61785</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="6">
         <v>57288</v>
       </c>
       <c r="V12" s="5">
@@ -3092,61 +3229,61 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="11">
         <v>0.8</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="11">
         <v>22</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="11">
         <v>4.5</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="11">
         <v>60.5</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="11">
         <v>12.4</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="11">
         <v>0.5</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="11">
         <v>16.3</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="11">
         <v>3.3</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="11">
         <v>1.6</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="11">
         <v>43.1</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="11">
         <v>8.8000000000000007</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="7">
         <v>5463</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="7">
         <v>6478</v>
       </c>
       <c r="S13" s="2">
         <v>-15.7</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="7">
         <v>17974</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="7">
         <v>17168</v>
       </c>
       <c r="V13" s="2">
@@ -3154,43 +3291,43 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="8">
         <v>0.02</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="8">
         <v>30.7</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="8">
         <v>0.04</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="8">
         <v>91.8</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="8">
         <v>15.3</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="8">
         <v>0.01</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="8">
         <v>26.8</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="8">
         <v>4.5</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="8">
         <v>0.03</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="8">
         <v>76.599999999999994</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="8">
         <v>12.8</v>
       </c>
       <c r="P14" s="3" t="s">
@@ -3205,7 +3342,7 @@
       <c r="S14" s="5">
         <v>25.7</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="6">
         <v>1733</v>
       </c>
       <c r="U14" s="5">
@@ -3216,61 +3353,61 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="11">
         <v>92.4</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="11">
         <v>171.8</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="11">
         <v>121.5</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="11">
         <v>281.89999999999998</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="11">
         <v>515.4</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="11">
         <v>369.2</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="11">
         <v>86.6</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="11">
         <v>163.9</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="11">
         <v>114.3</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="11">
         <v>265.89999999999998</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="11">
         <v>470</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="11">
         <v>345.5</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="7">
         <v>32213</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="7">
         <v>32947</v>
       </c>
       <c r="S15" s="2">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="7">
         <v>95339</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="7">
         <v>89460</v>
       </c>
       <c r="V15" s="2">
@@ -3278,21 +3415,21 @@
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
       <c r="P16" s="3" t="s">
         <v>99</v>
       </c>
@@ -3304,43 +3441,43 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="11">
         <v>5.2</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="11">
         <v>21.9</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="11">
         <v>9.1</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="11">
         <v>16.100000000000001</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="11">
         <v>61.6</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="11">
         <v>27.1</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="11">
         <v>17.8</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="11">
         <v>7.8</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="11">
         <v>15.5</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="11">
         <v>49.9</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="11">
         <v>24.4</v>
       </c>
       <c r="P17" s="4" t="s">
@@ -3366,43 +3503,43 @@
       </c>
     </row>
     <row r="18" spans="2:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="8">
         <v>0.5</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="8">
         <v>15.5</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="8">
         <v>3.5</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="8">
         <v>1.6</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="8">
         <v>44.7</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="8">
         <v>0.5</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="8">
         <v>13.8</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="8">
         <v>3.2</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="8">
         <v>1.4</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="8">
         <v>40</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="8">
         <v>9.3000000000000007</v>
       </c>
       <c r="P18" s="3" t="s">
@@ -3428,294 +3565,294 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="11">
         <v>4.7</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="11">
         <v>1.7</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="11">
         <v>5</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="11">
         <v>13.8</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="11">
         <v>14.6</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="11">
         <v>6.1</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="11">
         <v>2</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="11">
         <v>6.4</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="11">
         <v>14.1</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="11">
         <v>5.4</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="8">
         <v>5.8</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="8">
         <v>7.2</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="8">
         <v>15.7</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="8">
         <v>25</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="8">
         <v>19.8</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="8">
         <v>5.2</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="8">
         <v>6.9</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="8">
         <v>15</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="8">
         <v>29.8</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="11">
         <v>7.6</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="11">
         <v>7.6</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="11">
         <v>24.2</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="11">
         <v>24.2</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="11">
         <v>7.8</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="11">
         <v>7.8</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="11">
         <v>22.8</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="11">
         <v>22.8</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="8">
         <v>20.5</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="8">
         <v>15.6</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="8">
         <v>23.2</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="8">
         <v>62.5</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="8">
         <v>44.5</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="8">
         <v>70.2</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="8">
         <v>16.100000000000001</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="8">
         <v>15.8</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="8">
         <v>18.8</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="8">
         <v>46.7</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="8">
         <v>43.4</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="8">
         <v>54.2</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="11">
         <v>0.2</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="11">
         <v>6.8</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="11">
         <v>0.7</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="11">
         <v>6.9</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="11">
         <v>2.5</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="11">
         <v>0.2</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="11">
         <v>2.5</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="11">
         <v>0.8</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="11">
         <v>8.4</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="8">
         <v>46.6</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="8">
         <v>63.7</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="8">
         <v>58</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="8">
         <v>140.6</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="8">
         <v>181.1</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="8">
         <v>172.9</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="8">
         <v>42.8</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="8">
         <v>59.9</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="8">
         <v>53.5</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="8">
         <v>123.9</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="8">
         <v>169.3</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="8">
         <v>154.1</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="11">
         <v>139.1</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="11">
         <v>235.5</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="11">
         <v>179.6</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="11">
         <v>422.4</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="11">
         <v>696.5</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="11">
         <v>542.1</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="11">
         <v>129.30000000000001</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="11">
         <v>223.8</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="11">
         <v>167.8</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="11">
         <v>389.8</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="11">
         <v>639.29999999999995</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="11">
         <v>499.7</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="43" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3725,6 +3862,19 @@
     <row r="42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="F7:F8"/>
@@ -3741,19 +3891,6 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:V3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="T4:T5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3761,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F38"/>
   <sheetViews>
@@ -3779,545 +3916,545 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="3" spans="2:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54" t="s">
+      <c r="E3" s="68"/>
+      <c r="F3" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="34">
         <v>386.06</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="34">
         <v>376.15</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="35">
         <v>2.6</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="38">
         <v>211.29</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="38">
         <v>210.59</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="39">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="34">
         <v>190.42</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="34">
         <v>188.24</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="35">
         <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="38">
         <v>20.87</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="38">
         <v>22.35</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="39">
         <v>-6.6</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="34">
         <v>1048.1400000000001</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="34">
         <v>992.98</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="35">
         <v>5.6</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="38">
         <v>76.56</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="38">
         <v>75.73</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="39">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="34">
         <v>7.48</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="34">
         <v>7.1</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="35">
         <v>5.4</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54" t="s">
+      <c r="E14" s="68"/>
+      <c r="F14" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="68"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="34">
         <v>190.69</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="34">
         <v>193.74</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="35">
         <v>-1.6</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="38">
         <v>116.6</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="38">
         <v>117.52</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="39">
         <v>-0.8</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="34">
         <v>49.21</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="34">
         <v>47.26</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="35">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="38">
         <v>43.29</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="38">
         <v>48.45</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="39">
         <v>-10.7</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="34">
         <v>24.1</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="34">
         <v>21.81</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F20" s="35">
         <v>10.5</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="38">
         <v>30.32</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="38">
         <v>32.31</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="39">
         <v>-6.2</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54" t="s">
+      <c r="E24" s="68"/>
+      <c r="F24" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="57" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="34">
         <v>181.67</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="34">
         <v>180.55</v>
       </c>
-      <c r="F26" s="62">
+      <c r="F26" s="35">
         <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="38">
         <v>138.06</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="38">
         <v>142.61000000000001</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="39">
         <v>-3.2</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="34">
         <v>85.85</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="34">
         <v>91.05</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="35">
         <v>-5.7</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="38">
         <v>52.21</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="38">
         <v>51.56</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="39">
         <v>1.3</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54" t="s">
+      <c r="E32" s="68"/>
+      <c r="F32" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="68"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="57" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="34">
         <v>10041</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="34">
         <v>10662</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="35">
         <v>-5.8</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="38">
         <v>14952</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="38">
         <v>15233</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="39">
         <v>-1.8</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="34">
         <v>7377</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="34">
         <v>5943</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="35">
         <v>24.1</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="38">
         <v>934</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="38">
         <v>803</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="39">
         <v>16.3</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="71">
+      <c r="D38" s="42">
         <v>1038</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="42">
         <v>1052</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="39">
         <v>-1.3</v>
       </c>
     </row>
